--- a/service-system/target/classes/static/车辙-5车道.xlsx
+++ b/service-system/target/classes/static/车辙-5车道.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\jjgys\jjgys-parent\service-system\src\main\resources\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12910\Desktop\static\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DAE965-4C4D-475F-B460-955A98204E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFC2942-9172-4AD2-B017-592F3E65B6DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="799" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="799" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="右幅-混凝土路面" sheetId="12" state="hidden" r:id="rId1"/>
@@ -396,6 +396,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -417,20 +432,8 @@
     <xf numFmtId="178" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -439,9 +442,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -774,72 +774,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
       <c r="M2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
       <c r="Q2" s="11"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="30" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="31" t="s">
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
       <c r="M3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
       <c r="Q3" s="11"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="25" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="17" t="s">
@@ -847,7 +847,7 @@
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="19"/>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="25" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="17" t="s">
@@ -855,7 +855,7 @@
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="19"/>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="25" t="s">
         <v>8</v>
       </c>
       <c r="J4" s="17" t="s">
@@ -863,7 +863,7 @@
       </c>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
-      <c r="M4" s="20" t="s">
+      <c r="M4" s="25" t="s">
         <v>8</v>
       </c>
       <c r="N4" s="17" t="s">
@@ -874,25 +874,25 @@
       <c r="Q4" s="12"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
+      <c r="E5" s="25"/>
       <c r="F5" s="17" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="19"/>
-      <c r="I5" s="20"/>
+      <c r="I5" s="25"/>
       <c r="J5" s="17" t="s">
         <v>10</v>
       </c>
       <c r="K5" s="18"/>
       <c r="L5" s="19"/>
-      <c r="M5" s="20"/>
+      <c r="M5" s="25"/>
       <c r="N5" s="17" t="s">
         <v>10</v>
       </c>
@@ -901,7 +901,7 @@
       <c r="Q5" s="12"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
@@ -911,7 +911,7 @@
       <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="20"/>
+      <c r="E6" s="25"/>
       <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
@@ -921,7 +921,7 @@
       <c r="H6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="20"/>
+      <c r="I6" s="25"/>
       <c r="J6" s="4" t="s">
         <v>11</v>
       </c>
@@ -931,7 +931,7 @@
       <c r="L6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="20"/>
+      <c r="M6" s="25"/>
       <c r="N6" s="4" t="s">
         <v>11</v>
       </c>
@@ -1342,12 +1342,12 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="5"/>
-      <c r="M27" s="21" t="s">
+      <c r="M27" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="23"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="28"/>
       <c r="Q27" s="11"/>
     </row>
     <row r="28" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -1412,11 +1412,11 @@
       <c r="M30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="24" t="s">
+      <c r="N30" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="O30" s="25"/>
-      <c r="P30" s="26"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="31"/>
       <c r="Q30" s="14"/>
     </row>
     <row r="31" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -1490,18 +1490,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="N3:P3"/>
     <mergeCell ref="N32:P32"/>
     <mergeCell ref="N33:P33"/>
     <mergeCell ref="A4:A6"/>
@@ -1518,6 +1506,18 @@
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="N3:P3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>
@@ -1553,77 +1553,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
       <c r="M2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
       <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="32" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
       <c r="M3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
       <c r="S3" s="11"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="25" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="17" t="s">
@@ -1633,7 +1633,7 @@
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
       <c r="F4" s="19"/>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="25" t="s">
         <v>8</v>
       </c>
       <c r="H4" s="17" t="s">
@@ -1643,7 +1643,7 @@
       <c r="J4" s="18"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
-      <c r="M4" s="20" t="s">
+      <c r="M4" s="25" t="s">
         <v>8</v>
       </c>
       <c r="N4" s="17" t="s">
@@ -1656,7 +1656,7 @@
       <c r="S4" s="12"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="17" t="s">
         <v>24</v>
       </c>
@@ -1664,7 +1664,7 @@
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
       <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="G5" s="25"/>
       <c r="H5" s="17" t="s">
         <v>24</v>
       </c>
@@ -1672,7 +1672,7 @@
       <c r="J5" s="18"/>
       <c r="K5" s="18"/>
       <c r="L5" s="19"/>
-      <c r="M5" s="20"/>
+      <c r="M5" s="25"/>
       <c r="N5" s="17" t="s">
         <v>24</v>
       </c>
@@ -1683,7 +1683,7 @@
       <c r="S5" s="12"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
@@ -1699,7 +1699,7 @@
       <c r="F6" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="20"/>
+      <c r="G6" s="25"/>
       <c r="H6" s="4" t="s">
         <v>11</v>
       </c>
@@ -1715,7 +1715,7 @@
       <c r="L6" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="20"/>
+      <c r="M6" s="25"/>
       <c r="N6" s="4" t="s">
         <v>11</v>
       </c>
@@ -2172,14 +2172,14 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
-      <c r="M27" s="21" t="s">
+      <c r="M27" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="23"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="28"/>
       <c r="S27" s="11"/>
     </row>
     <row r="28" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2248,13 +2248,13 @@
       <c r="M30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="24" t="s">
+      <c r="N30" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="O30" s="25"/>
-      <c r="P30" s="25"/>
-      <c r="Q30" s="25"/>
-      <c r="R30" s="26"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30"/>
+      <c r="R30" s="31"/>
       <c r="S30" s="14"/>
     </row>
     <row r="31" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2334,11 +2334,13 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="N29:R29"/>
-    <mergeCell ref="N30:R30"/>
-    <mergeCell ref="N31:R31"/>
-    <mergeCell ref="N32:R32"/>
-    <mergeCell ref="N33:R33"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:K3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -2353,13 +2355,11 @@
     <mergeCell ref="H5:L5"/>
     <mergeCell ref="N5:R5"/>
     <mergeCell ref="O26:R26"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="N29:R29"/>
+    <mergeCell ref="N30:R30"/>
+    <mergeCell ref="N31:R31"/>
+    <mergeCell ref="N32:R32"/>
+    <mergeCell ref="N33:R33"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
@@ -2394,76 +2394,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
       <c r="M2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
       <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="32" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
       <c r="M3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
       <c r="S3" s="11"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="25" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="17" t="s">
@@ -2473,7 +2473,7 @@
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
       <c r="F4" s="19"/>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="25" t="s">
         <v>8</v>
       </c>
       <c r="H4" s="17" t="s">
@@ -2483,7 +2483,7 @@
       <c r="J4" s="18"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
-      <c r="M4" s="20" t="s">
+      <c r="M4" s="25" t="s">
         <v>8</v>
       </c>
       <c r="N4" s="17" t="s">
@@ -2496,24 +2496,24 @@
       <c r="S4" s="12"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
-      <c r="B5" s="35" t="s">
+      <c r="A5" s="25"/>
+      <c r="B5" s="32" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
       <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="35" t="s">
+      <c r="G5" s="25"/>
+      <c r="H5" s="32" t="s">
         <v>34</v>
       </c>
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
       <c r="K5" s="18"/>
       <c r="L5" s="19"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="35" t="s">
+      <c r="M5" s="25"/>
+      <c r="N5" s="32" t="s">
         <v>34</v>
       </c>
       <c r="O5" s="18"/>
@@ -2523,7 +2523,7 @@
       <c r="S5" s="12"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
@@ -2539,7 +2539,7 @@
       <c r="F6" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="20"/>
+      <c r="G6" s="25"/>
       <c r="H6" s="4" t="s">
         <v>11</v>
       </c>
@@ -2555,7 +2555,7 @@
       <c r="L6" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="20"/>
+      <c r="M6" s="25"/>
       <c r="N6" s="4" t="s">
         <v>11</v>
       </c>
@@ -3012,14 +3012,14 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
-      <c r="M27" s="21" t="s">
+      <c r="M27" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="23"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="28"/>
       <c r="S27" s="11"/>
     </row>
     <row r="28" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -3088,13 +3088,13 @@
       <c r="M30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="24" t="s">
+      <c r="N30" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="O30" s="25"/>
-      <c r="P30" s="25"/>
-      <c r="Q30" s="25"/>
-      <c r="R30" s="26"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30"/>
+      <c r="R30" s="31"/>
       <c r="S30" s="14"/>
     </row>
     <row r="31" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -3174,11 +3174,13 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="N29:R29"/>
-    <mergeCell ref="N30:R30"/>
-    <mergeCell ref="N31:R31"/>
-    <mergeCell ref="N32:R32"/>
-    <mergeCell ref="N33:R33"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="N2:Q2"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -3193,13 +3195,11 @@
     <mergeCell ref="H5:L5"/>
     <mergeCell ref="N5:R5"/>
     <mergeCell ref="O26:R26"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N29:R29"/>
+    <mergeCell ref="N30:R30"/>
+    <mergeCell ref="N31:R31"/>
+    <mergeCell ref="N32:R32"/>
+    <mergeCell ref="N33:R33"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
@@ -3217,7 +3217,7 @@
   </sheetPr>
   <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
@@ -3234,76 +3234,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
       <c r="M2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
       <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="32" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
       <c r="M3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
       <c r="S3" s="11"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="25" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="17" t="s">
@@ -3313,7 +3313,7 @@
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
       <c r="F4" s="19"/>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="25" t="s">
         <v>8</v>
       </c>
       <c r="H4" s="17" t="s">
@@ -3323,7 +3323,7 @@
       <c r="J4" s="18"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
-      <c r="M4" s="20" t="s">
+      <c r="M4" s="25" t="s">
         <v>8</v>
       </c>
       <c r="N4" s="17" t="s">
@@ -3336,7 +3336,7 @@
       <c r="S4" s="12"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="17" t="s">
         <v>24</v>
       </c>
@@ -3344,7 +3344,7 @@
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
       <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="G5" s="25"/>
       <c r="H5" s="17" t="s">
         <v>24</v>
       </c>
@@ -3352,7 +3352,7 @@
       <c r="J5" s="18"/>
       <c r="K5" s="18"/>
       <c r="L5" s="19"/>
-      <c r="M5" s="20"/>
+      <c r="M5" s="25"/>
       <c r="N5" s="17" t="s">
         <v>24</v>
       </c>
@@ -3363,7 +3363,7 @@
       <c r="S5" s="12"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
@@ -3379,7 +3379,7 @@
       <c r="F6" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="20"/>
+      <c r="G6" s="25"/>
       <c r="H6" s="4" t="s">
         <v>11</v>
       </c>
@@ -3395,7 +3395,7 @@
       <c r="L6" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="20"/>
+      <c r="M6" s="25"/>
       <c r="N6" s="4" t="s">
         <v>11</v>
       </c>
@@ -3852,14 +3852,14 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
-      <c r="M27" s="21" t="s">
+      <c r="M27" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="23"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="28"/>
       <c r="S27" s="11"/>
     </row>
     <row r="28" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -3928,13 +3928,13 @@
       <c r="M30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="24" t="s">
+      <c r="N30" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="O30" s="25"/>
-      <c r="P30" s="25"/>
-      <c r="Q30" s="25"/>
-      <c r="R30" s="26"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30"/>
+      <c r="R30" s="31"/>
       <c r="S30" s="14"/>
     </row>
     <row r="31" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -4014,6 +4014,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="N32:R32"/>
+    <mergeCell ref="N33:R33"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="N28:R28"/>
+    <mergeCell ref="N29:R29"/>
+    <mergeCell ref="N30:R30"/>
+    <mergeCell ref="N31:R31"/>
+    <mergeCell ref="O26:R26"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -4030,16 +4040,6 @@
     <mergeCell ref="H5:L5"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="N32:R32"/>
-    <mergeCell ref="N33:R33"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="N28:R28"/>
-    <mergeCell ref="N29:R29"/>
-    <mergeCell ref="N30:R30"/>
-    <mergeCell ref="N31:R31"/>
-    <mergeCell ref="O26:R26"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
@@ -4075,72 +4075,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
       <c r="M2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
       <c r="Q2" s="11"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="30" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="31" t="s">
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
       <c r="M3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
       <c r="Q3" s="11"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="25" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="17" t="s">
@@ -4148,7 +4148,7 @@
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="19"/>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="25" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="17" t="s">
@@ -4156,7 +4156,7 @@
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="19"/>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="25" t="s">
         <v>8</v>
       </c>
       <c r="J4" s="17" t="s">
@@ -4164,7 +4164,7 @@
       </c>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
-      <c r="M4" s="20" t="s">
+      <c r="M4" s="25" t="s">
         <v>8</v>
       </c>
       <c r="N4" s="17" t="s">
@@ -4175,25 +4175,25 @@
       <c r="Q4" s="12"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="17" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
+      <c r="E5" s="25"/>
       <c r="F5" s="17" t="s">
         <v>24</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="19"/>
-      <c r="I5" s="20"/>
+      <c r="I5" s="25"/>
       <c r="J5" s="17" t="s">
         <v>24</v>
       </c>
       <c r="K5" s="18"/>
       <c r="L5" s="19"/>
-      <c r="M5" s="20"/>
+      <c r="M5" s="25"/>
       <c r="N5" s="17" t="s">
         <v>24</v>
       </c>
@@ -4202,7 +4202,7 @@
       <c r="Q5" s="12"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
@@ -4212,7 +4212,7 @@
       <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="20"/>
+      <c r="E6" s="25"/>
       <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
@@ -4222,7 +4222,7 @@
       <c r="H6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="20"/>
+      <c r="I6" s="25"/>
       <c r="J6" s="4" t="s">
         <v>11</v>
       </c>
@@ -4232,7 +4232,7 @@
       <c r="L6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="20"/>
+      <c r="M6" s="25"/>
       <c r="N6" s="4" t="s">
         <v>11</v>
       </c>
@@ -4643,12 +4643,12 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="5"/>
-      <c r="M27" s="21" t="s">
+      <c r="M27" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="23"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="28"/>
       <c r="Q27" s="11"/>
     </row>
     <row r="28" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -4713,11 +4713,11 @@
       <c r="M30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="24" t="s">
+      <c r="N30" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="O30" s="25"/>
-      <c r="P30" s="26"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="31"/>
       <c r="Q30" s="14"/>
     </row>
     <row r="31" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -4791,18 +4791,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="N3:P3"/>
     <mergeCell ref="N32:P32"/>
     <mergeCell ref="N33:P33"/>
     <mergeCell ref="A4:A6"/>
@@ -4819,6 +4807,18 @@
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="N3:P3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>
@@ -4855,72 +4855,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
       <c r="M2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
       <c r="Q2" s="11"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="30" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="31" t="s">
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
       <c r="M3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
       <c r="Q3" s="11"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="25" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="17" t="s">
@@ -4928,7 +4928,7 @@
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="19"/>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="25" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="17" t="s">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="19"/>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="25" t="s">
         <v>8</v>
       </c>
       <c r="J4" s="17" t="s">
@@ -4944,7 +4944,7 @@
       </c>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
-      <c r="M4" s="20" t="s">
+      <c r="M4" s="25" t="s">
         <v>8</v>
       </c>
       <c r="N4" s="17" t="s">
@@ -4955,25 +4955,25 @@
       <c r="Q4" s="12"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="17" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
+      <c r="E5" s="25"/>
       <c r="F5" s="17" t="s">
         <v>24</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="19"/>
-      <c r="I5" s="20"/>
+      <c r="I5" s="25"/>
       <c r="J5" s="17" t="s">
         <v>24</v>
       </c>
       <c r="K5" s="18"/>
       <c r="L5" s="19"/>
-      <c r="M5" s="20"/>
+      <c r="M5" s="25"/>
       <c r="N5" s="17" t="s">
         <v>24</v>
       </c>
@@ -4982,7 +4982,7 @@
       <c r="Q5" s="12"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
@@ -4992,7 +4992,7 @@
       <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="20"/>
+      <c r="E6" s="25"/>
       <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
@@ -5002,7 +5002,7 @@
       <c r="H6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="20"/>
+      <c r="I6" s="25"/>
       <c r="J6" s="4" t="s">
         <v>11</v>
       </c>
@@ -5012,7 +5012,7 @@
       <c r="L6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="20"/>
+      <c r="M6" s="25"/>
       <c r="N6" s="4" t="s">
         <v>11</v>
       </c>
@@ -5423,12 +5423,12 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="5"/>
-      <c r="M27" s="21" t="s">
+      <c r="M27" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="23"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="28"/>
       <c r="Q27" s="11"/>
     </row>
     <row r="28" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -5493,11 +5493,11 @@
       <c r="M30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="24" t="s">
+      <c r="N30" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="O30" s="25"/>
-      <c r="P30" s="26"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="31"/>
       <c r="Q30" s="14"/>
     </row>
     <row r="31" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -5571,18 +5571,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="N3:P3"/>
     <mergeCell ref="N32:P32"/>
     <mergeCell ref="N33:P33"/>
     <mergeCell ref="A4:A6"/>
@@ -5599,6 +5587,18 @@
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="N3:P3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>
@@ -5635,72 +5635,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
       <c r="M2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
       <c r="Q2" s="11"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="30" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="31" t="s">
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
       <c r="M3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
       <c r="Q3" s="11"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="25" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="17" t="s">
@@ -5708,7 +5708,7 @@
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="19"/>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="25" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="17" t="s">
@@ -5716,7 +5716,7 @@
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="19"/>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="25" t="s">
         <v>8</v>
       </c>
       <c r="J4" s="17" t="s">
@@ -5724,7 +5724,7 @@
       </c>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
-      <c r="M4" s="20" t="s">
+      <c r="M4" s="25" t="s">
         <v>8</v>
       </c>
       <c r="N4" s="17" t="s">
@@ -5735,25 +5735,25 @@
       <c r="Q4" s="12"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
+      <c r="E5" s="25"/>
       <c r="F5" s="17" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="19"/>
-      <c r="I5" s="20"/>
+      <c r="I5" s="25"/>
       <c r="J5" s="17" t="s">
         <v>10</v>
       </c>
       <c r="K5" s="18"/>
       <c r="L5" s="19"/>
-      <c r="M5" s="20"/>
+      <c r="M5" s="25"/>
       <c r="N5" s="17" t="s">
         <v>10</v>
       </c>
@@ -5762,7 +5762,7 @@
       <c r="Q5" s="12"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
@@ -5772,7 +5772,7 @@
       <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="20"/>
+      <c r="E6" s="25"/>
       <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
@@ -5782,7 +5782,7 @@
       <c r="H6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="20"/>
+      <c r="I6" s="25"/>
       <c r="J6" s="4" t="s">
         <v>11</v>
       </c>
@@ -5792,7 +5792,7 @@
       <c r="L6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="20"/>
+      <c r="M6" s="25"/>
       <c r="N6" s="4" t="s">
         <v>11</v>
       </c>
@@ -6203,12 +6203,12 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="5"/>
-      <c r="M27" s="21" t="s">
+      <c r="M27" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="23"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="28"/>
       <c r="Q27" s="11"/>
     </row>
     <row r="28" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -6273,11 +6273,11 @@
       <c r="M30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="24" t="s">
+      <c r="N30" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="O30" s="25"/>
-      <c r="P30" s="26"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="31"/>
       <c r="Q30" s="14"/>
     </row>
     <row r="31" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -6351,18 +6351,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="N3:P3"/>
     <mergeCell ref="N32:P32"/>
     <mergeCell ref="N33:P33"/>
     <mergeCell ref="A4:A6"/>
@@ -6379,6 +6367,18 @@
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="N3:P3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>
@@ -6415,72 +6415,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
       <c r="M2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
       <c r="Q2" s="11"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="30" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="31" t="s">
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
       <c r="M3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
       <c r="Q3" s="11"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="25" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="17" t="s">
@@ -6488,7 +6488,7 @@
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="19"/>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="25" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="17" t="s">
@@ -6496,7 +6496,7 @@
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="19"/>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="25" t="s">
         <v>8</v>
       </c>
       <c r="J4" s="17" t="s">
@@ -6504,7 +6504,7 @@
       </c>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
-      <c r="M4" s="20" t="s">
+      <c r="M4" s="25" t="s">
         <v>8</v>
       </c>
       <c r="N4" s="17" t="s">
@@ -6515,25 +6515,25 @@
       <c r="Q4" s="12"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="17" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
+      <c r="E5" s="25"/>
       <c r="F5" s="17" t="s">
         <v>24</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="19"/>
-      <c r="I5" s="20"/>
+      <c r="I5" s="25"/>
       <c r="J5" s="17" t="s">
         <v>24</v>
       </c>
       <c r="K5" s="18"/>
       <c r="L5" s="19"/>
-      <c r="M5" s="20"/>
+      <c r="M5" s="25"/>
       <c r="N5" s="17" t="s">
         <v>24</v>
       </c>
@@ -6542,7 +6542,7 @@
       <c r="Q5" s="12"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
@@ -6552,7 +6552,7 @@
       <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="20"/>
+      <c r="E6" s="25"/>
       <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
@@ -6562,7 +6562,7 @@
       <c r="H6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="20"/>
+      <c r="I6" s="25"/>
       <c r="J6" s="4" t="s">
         <v>11</v>
       </c>
@@ -6572,7 +6572,7 @@
       <c r="L6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="20"/>
+      <c r="M6" s="25"/>
       <c r="N6" s="4" t="s">
         <v>11</v>
       </c>
@@ -6983,12 +6983,12 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="5"/>
-      <c r="M27" s="21" t="s">
+      <c r="M27" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="23"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="28"/>
       <c r="Q27" s="11"/>
     </row>
     <row r="28" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -7053,11 +7053,11 @@
       <c r="M30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="24" t="s">
+      <c r="N30" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="O30" s="25"/>
-      <c r="P30" s="26"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="31"/>
       <c r="Q30" s="14"/>
     </row>
     <row r="31" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -7131,18 +7131,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="N3:P3"/>
     <mergeCell ref="N32:P32"/>
     <mergeCell ref="N33:P33"/>
     <mergeCell ref="A4:A6"/>
@@ -7159,6 +7147,18 @@
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="N3:P3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>
@@ -7195,72 +7195,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
       <c r="M2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
       <c r="Q2" s="11"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="30" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="31" t="s">
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
       <c r="M3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
       <c r="Q3" s="11"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="25" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="17" t="s">
@@ -7268,7 +7268,7 @@
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="19"/>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="25" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="17" t="s">
@@ -7276,7 +7276,7 @@
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="19"/>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="25" t="s">
         <v>8</v>
       </c>
       <c r="J4" s="17" t="s">
@@ -7284,7 +7284,7 @@
       </c>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
-      <c r="M4" s="20" t="s">
+      <c r="M4" s="25" t="s">
         <v>8</v>
       </c>
       <c r="N4" s="17" t="s">
@@ -7295,25 +7295,25 @@
       <c r="Q4" s="12"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
+      <c r="E5" s="25"/>
       <c r="F5" s="17" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="19"/>
-      <c r="I5" s="20"/>
+      <c r="I5" s="25"/>
       <c r="J5" s="17" t="s">
         <v>10</v>
       </c>
       <c r="K5" s="18"/>
       <c r="L5" s="19"/>
-      <c r="M5" s="20"/>
+      <c r="M5" s="25"/>
       <c r="N5" s="17" t="s">
         <v>10</v>
       </c>
@@ -7322,7 +7322,7 @@
       <c r="Q5" s="12"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
@@ -7332,7 +7332,7 @@
       <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="20"/>
+      <c r="E6" s="25"/>
       <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
@@ -7342,7 +7342,7 @@
       <c r="H6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="20"/>
+      <c r="I6" s="25"/>
       <c r="J6" s="4" t="s">
         <v>11</v>
       </c>
@@ -7352,7 +7352,7 @@
       <c r="L6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="20"/>
+      <c r="M6" s="25"/>
       <c r="N6" s="4" t="s">
         <v>11</v>
       </c>
@@ -7763,12 +7763,12 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="5"/>
-      <c r="M27" s="21" t="s">
+      <c r="M27" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="23"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="28"/>
       <c r="Q27" s="11"/>
     </row>
     <row r="28" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -7833,11 +7833,11 @@
       <c r="M30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="24" t="s">
+      <c r="N30" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="O30" s="25"/>
-      <c r="P30" s="26"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="31"/>
       <c r="Q30" s="14"/>
     </row>
     <row r="31" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -7911,18 +7911,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="N3:P3"/>
     <mergeCell ref="N32:P32"/>
     <mergeCell ref="N33:P33"/>
     <mergeCell ref="A4:A6"/>
@@ -7939,6 +7927,18 @@
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="N3:P3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>
@@ -7957,7 +7957,7 @@
   </sheetPr>
   <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="O26" sqref="O26:R26"/>
     </sheetView>
   </sheetViews>
@@ -7974,77 +7974,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
       <c r="M2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
       <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="32" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
       <c r="M3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
       <c r="S3" s="11"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="25" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="17" t="s">
@@ -8054,7 +8054,7 @@
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
       <c r="F4" s="19"/>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="25" t="s">
         <v>8</v>
       </c>
       <c r="H4" s="17" t="s">
@@ -8064,7 +8064,7 @@
       <c r="J4" s="18"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
-      <c r="M4" s="20" t="s">
+      <c r="M4" s="25" t="s">
         <v>8</v>
       </c>
       <c r="N4" s="17" t="s">
@@ -8077,24 +8077,24 @@
       <c r="S4" s="12"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
-      <c r="B5" s="35" t="s">
+      <c r="A5" s="25"/>
+      <c r="B5" s="32" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
       <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="35" t="s">
+      <c r="G5" s="25"/>
+      <c r="H5" s="32" t="s">
         <v>34</v>
       </c>
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
       <c r="K5" s="18"/>
       <c r="L5" s="19"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="35" t="s">
+      <c r="M5" s="25"/>
+      <c r="N5" s="32" t="s">
         <v>34</v>
       </c>
       <c r="O5" s="18"/>
@@ -8104,7 +8104,7 @@
       <c r="S5" s="12"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
@@ -8120,7 +8120,7 @@
       <c r="F6" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="20"/>
+      <c r="G6" s="25"/>
       <c r="H6" s="4" t="s">
         <v>11</v>
       </c>
@@ -8136,7 +8136,7 @@
       <c r="L6" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="20"/>
+      <c r="M6" s="25"/>
       <c r="N6" s="4" t="s">
         <v>11</v>
       </c>
@@ -8593,14 +8593,14 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
-      <c r="M27" s="21" t="s">
+      <c r="M27" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="23"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="28"/>
       <c r="S27" s="11"/>
     </row>
     <row r="28" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -8669,13 +8669,13 @@
       <c r="M30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="24" t="s">
+      <c r="N30" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="O30" s="25"/>
-      <c r="P30" s="25"/>
-      <c r="Q30" s="25"/>
-      <c r="R30" s="26"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30"/>
+      <c r="R30" s="31"/>
       <c r="S30" s="14"/>
     </row>
     <row r="31" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -8755,6 +8755,24 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="N4:R4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="B4:F4"/>
     <mergeCell ref="O26:R26"/>
     <mergeCell ref="N32:R32"/>
     <mergeCell ref="N33:R33"/>
@@ -8763,24 +8781,6 @@
     <mergeCell ref="N29:R29"/>
     <mergeCell ref="N30:R30"/>
     <mergeCell ref="N31:R31"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="N4:R4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="N3:R3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
@@ -8815,77 +8815,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
       <c r="M2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
       <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="32" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
       <c r="M3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
       <c r="S3" s="11"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="25" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="17" t="s">
@@ -8895,7 +8895,7 @@
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
       <c r="F4" s="19"/>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="25" t="s">
         <v>8</v>
       </c>
       <c r="H4" s="17" t="s">
@@ -8905,7 +8905,7 @@
       <c r="J4" s="18"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
-      <c r="M4" s="20" t="s">
+      <c r="M4" s="25" t="s">
         <v>8</v>
       </c>
       <c r="N4" s="17" t="s">
@@ -8918,7 +8918,7 @@
       <c r="S4" s="12"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="17" t="s">
         <v>24</v>
       </c>
@@ -8926,7 +8926,7 @@
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
       <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="G5" s="25"/>
       <c r="H5" s="17" t="s">
         <v>24</v>
       </c>
@@ -8934,7 +8934,7 @@
       <c r="J5" s="18"/>
       <c r="K5" s="18"/>
       <c r="L5" s="19"/>
-      <c r="M5" s="20"/>
+      <c r="M5" s="25"/>
       <c r="N5" s="17" t="s">
         <v>24</v>
       </c>
@@ -8945,7 +8945,7 @@
       <c r="S5" s="12"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
@@ -8961,7 +8961,7 @@
       <c r="F6" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="20"/>
+      <c r="G6" s="25"/>
       <c r="H6" s="4" t="s">
         <v>11</v>
       </c>
@@ -8977,7 +8977,7 @@
       <c r="L6" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="20"/>
+      <c r="M6" s="25"/>
       <c r="N6" s="4" t="s">
         <v>11</v>
       </c>
@@ -9434,14 +9434,14 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
-      <c r="M27" s="21" t="s">
+      <c r="M27" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="23"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="28"/>
       <c r="S27" s="11"/>
     </row>
     <row r="28" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -9510,13 +9510,13 @@
       <c r="M30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="24" t="s">
+      <c r="N30" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="O30" s="25"/>
-      <c r="P30" s="25"/>
-      <c r="Q30" s="25"/>
-      <c r="R30" s="26"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30"/>
+      <c r="R30" s="31"/>
       <c r="S30" s="14"/>
     </row>
     <row r="31" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -9596,11 +9596,13 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="N29:R29"/>
-    <mergeCell ref="N30:R30"/>
-    <mergeCell ref="N31:R31"/>
-    <mergeCell ref="N32:R32"/>
-    <mergeCell ref="N33:R33"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:K3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -9615,13 +9617,11 @@
     <mergeCell ref="H5:L5"/>
     <mergeCell ref="N5:R5"/>
     <mergeCell ref="O26:R26"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="N29:R29"/>
+    <mergeCell ref="N30:R30"/>
+    <mergeCell ref="N31:R31"/>
+    <mergeCell ref="N32:R32"/>
+    <mergeCell ref="N33:R33"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
@@ -9656,77 +9656,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
       <c r="M2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
       <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="32" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
       <c r="M3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
       <c r="S3" s="11"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="25" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="17" t="s">
@@ -9736,7 +9736,7 @@
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
       <c r="F4" s="19"/>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="25" t="s">
         <v>8</v>
       </c>
       <c r="H4" s="17" t="s">
@@ -9746,7 +9746,7 @@
       <c r="J4" s="18"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
-      <c r="M4" s="20" t="s">
+      <c r="M4" s="25" t="s">
         <v>8</v>
       </c>
       <c r="N4" s="17" t="s">
@@ -9759,24 +9759,24 @@
       <c r="S4" s="12"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
-      <c r="B5" s="35" t="s">
+      <c r="A5" s="25"/>
+      <c r="B5" s="32" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
       <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="35" t="s">
+      <c r="G5" s="25"/>
+      <c r="H5" s="32" t="s">
         <v>34</v>
       </c>
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
       <c r="K5" s="18"/>
       <c r="L5" s="19"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="35" t="s">
+      <c r="M5" s="25"/>
+      <c r="N5" s="32" t="s">
         <v>34</v>
       </c>
       <c r="O5" s="18"/>
@@ -9786,7 +9786,7 @@
       <c r="S5" s="12"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
@@ -9802,7 +9802,7 @@
       <c r="F6" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="20"/>
+      <c r="G6" s="25"/>
       <c r="H6" s="4" t="s">
         <v>11</v>
       </c>
@@ -9818,7 +9818,7 @@
       <c r="L6" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="20"/>
+      <c r="M6" s="25"/>
       <c r="N6" s="4" t="s">
         <v>11</v>
       </c>
@@ -10275,14 +10275,14 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
-      <c r="M27" s="21" t="s">
+      <c r="M27" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="23"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="28"/>
       <c r="S27" s="11"/>
     </row>
     <row r="28" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -10351,13 +10351,13 @@
       <c r="M30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="24" t="s">
+      <c r="N30" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="O30" s="25"/>
-      <c r="P30" s="25"/>
-      <c r="Q30" s="25"/>
-      <c r="R30" s="26"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30"/>
+      <c r="R30" s="31"/>
       <c r="S30" s="14"/>
     </row>
     <row r="31" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -10437,11 +10437,13 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="N29:R29"/>
-    <mergeCell ref="N30:R30"/>
-    <mergeCell ref="N31:R31"/>
-    <mergeCell ref="N32:R32"/>
-    <mergeCell ref="N33:R33"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:K3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -10456,13 +10458,11 @@
     <mergeCell ref="H5:L5"/>
     <mergeCell ref="N5:R5"/>
     <mergeCell ref="O26:R26"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="N29:R29"/>
+    <mergeCell ref="N30:R30"/>
+    <mergeCell ref="N31:R31"/>
+    <mergeCell ref="N32:R32"/>
+    <mergeCell ref="N33:R33"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
